--- a/Tabla_buscador_indicadores.xlsx
+++ b/Tabla_buscador_indicadores.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14616"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5625" uniqueCount="671">
   <si>
     <t>Indicador</t>
   </si>
@@ -1785,9 +1785,6 @@
   </si>
   <si>
     <t>Índice Tipo de Vivienda (aceptable/irrecuperable) por región (2020)</t>
-  </si>
-  <si>
-    <t>Fuerza motríz</t>
   </si>
   <si>
     <t>C-Transi-3</t>
@@ -2051,8 +2048,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2143,7 +2140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2178,7 +2175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2355,40 +2352,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B193" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="140.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="140.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1" t="s">
         <v>668</v>
-      </c>
-      <c r="D1" t="s">
-        <v>669</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2400,7 +2397,7 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -2454,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2471,7 +2468,7 @@
         <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
@@ -2531,7 +2528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2548,7 +2545,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -2608,7 +2605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2625,7 +2622,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -2685,7 +2682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2702,7 +2699,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G5" t="s">
         <v>34</v>
@@ -2762,7 +2759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2779,7 +2776,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G6" t="s">
         <v>37</v>
@@ -2839,7 +2836,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -2856,7 +2853,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G7" t="s">
         <v>40</v>
@@ -2916,7 +2913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2933,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G8" t="s">
         <v>43</v>
@@ -2993,7 +2990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -3010,7 +3007,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -3070,7 +3067,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3087,7 +3084,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G10" t="s">
         <v>50</v>
@@ -3147,7 +3144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3164,7 +3161,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
@@ -3224,7 +3221,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G12" t="s">
         <v>57</v>
@@ -3301,7 +3298,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3318,7 +3315,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G13" t="s">
         <v>59</v>
@@ -3378,7 +3375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -3395,7 +3392,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G14" t="s">
         <v>61</v>
@@ -3455,7 +3452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -3472,7 +3469,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G15" t="s">
         <v>63</v>
@@ -3532,7 +3529,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3549,7 +3546,7 @@
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G16" t="s">
         <v>67</v>
@@ -3609,7 +3606,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G17" t="s">
         <v>70</v>
@@ -3686,7 +3683,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3703,7 +3700,7 @@
         <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -3763,7 +3760,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -3780,7 +3777,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G19" t="s">
         <v>76</v>
@@ -3840,7 +3837,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G20" t="s">
         <v>79</v>
@@ -3917,7 +3914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -3934,7 +3931,7 @@
         <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G21" t="s">
         <v>82</v>
@@ -3994,7 +3991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -4011,7 +4008,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G22" t="s">
         <v>85</v>
@@ -4071,7 +4068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -4088,7 +4085,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G23" t="s">
         <v>88</v>
@@ -4148,7 +4145,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -4165,7 +4162,7 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G24" t="s">
         <v>91</v>
@@ -4225,7 +4222,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -4242,7 +4239,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G25" t="s">
         <v>95</v>
@@ -4302,7 +4299,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
         <v>97</v>
       </c>
@@ -4319,7 +4316,7 @@
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G26" t="s">
         <v>98</v>
@@ -4379,7 +4376,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -4396,7 +4393,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G27" t="s">
         <v>100</v>
@@ -4456,7 +4453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -4473,7 +4470,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G28" t="s">
         <v>103</v>
@@ -4533,7 +4530,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
         <v>105</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G29" t="s">
         <v>106</v>
@@ -4610,7 +4607,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -4627,7 +4624,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G30" t="s">
         <v>110</v>
@@ -4687,7 +4684,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -4704,7 +4701,7 @@
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G31" t="s">
         <v>113</v>
@@ -4764,7 +4761,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
         <v>115</v>
       </c>
@@ -4781,7 +4778,7 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G32" t="s">
         <v>117</v>
@@ -4841,7 +4838,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
         <v>119</v>
       </c>
@@ -4858,7 +4855,7 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G33" t="s">
         <v>120</v>
@@ -4918,7 +4915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
         <v>122</v>
       </c>
@@ -4935,7 +4932,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G34" t="s">
         <v>123</v>
@@ -4995,7 +4992,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -5012,7 +5009,7 @@
         <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G35" t="s">
         <v>127</v>
@@ -5072,7 +5069,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -5089,7 +5086,7 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G36" t="s">
         <v>130</v>
@@ -5149,7 +5146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
         <v>132</v>
       </c>
@@ -5166,7 +5163,7 @@
         <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G37" t="s">
         <v>133</v>
@@ -5226,7 +5223,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -5243,7 +5240,7 @@
         <v>24</v>
       </c>
       <c r="F38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G38" t="s">
         <v>136</v>
@@ -5303,7 +5300,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
         <v>137</v>
       </c>
@@ -5320,7 +5317,7 @@
         <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G39" t="s">
         <v>138</v>
@@ -5380,7 +5377,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
         <v>140</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G40" t="s">
         <v>141</v>
@@ -5457,7 +5454,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
         <v>142</v>
       </c>
@@ -5474,7 +5471,7 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G41" t="s">
         <v>144</v>
@@ -5534,7 +5531,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -5551,7 +5548,7 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G42" t="s">
         <v>147</v>
@@ -5611,7 +5608,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
         <v>149</v>
       </c>
@@ -5628,7 +5625,7 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G43" t="s">
         <v>150</v>
@@ -5688,7 +5685,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
         <v>152</v>
       </c>
@@ -5705,7 +5702,7 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G44" t="s">
         <v>153</v>
@@ -5765,7 +5762,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
         <v>154</v>
       </c>
@@ -5782,7 +5779,7 @@
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G45" t="s">
         <v>155</v>
@@ -5842,7 +5839,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G46" t="s">
         <v>158</v>
@@ -5919,7 +5916,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
         <v>159</v>
       </c>
@@ -5936,7 +5933,7 @@
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G47" t="s">
         <v>161</v>
@@ -5996,7 +5993,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -6013,7 +6010,7 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G48" t="s">
         <v>164</v>
@@ -6073,7 +6070,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -6090,7 +6087,7 @@
         <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G49" t="s">
         <v>166</v>
@@ -6150,7 +6147,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -6167,7 +6164,7 @@
         <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G50" t="s">
         <v>169</v>
@@ -6227,7 +6224,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -6244,7 +6241,7 @@
         <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G51" t="s">
         <v>171</v>
@@ -6304,7 +6301,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
         <v>173</v>
       </c>
@@ -6321,7 +6318,7 @@
         <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G52" t="s">
         <v>174</v>
@@ -6381,7 +6378,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -6398,7 +6395,7 @@
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G53" t="s">
         <v>176</v>
@@ -6458,7 +6455,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
         <v>178</v>
       </c>
@@ -6475,7 +6472,7 @@
         <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G54" t="s">
         <v>179</v>
@@ -6535,7 +6532,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
         <v>180</v>
       </c>
@@ -6552,7 +6549,7 @@
         <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G55" t="s">
         <v>181</v>
@@ -6612,7 +6609,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
         <v>183</v>
       </c>
@@ -6629,7 +6626,7 @@
         <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G56" t="s">
         <v>184</v>
@@ -6689,7 +6686,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
         <v>185</v>
       </c>
@@ -6706,7 +6703,7 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G57" t="s">
         <v>186</v>
@@ -6766,7 +6763,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
         <v>188</v>
       </c>
@@ -6783,7 +6780,7 @@
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G58" t="s">
         <v>191</v>
@@ -6843,7 +6840,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
         <v>193</v>
       </c>
@@ -6860,7 +6857,7 @@
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G59" t="s">
         <v>194</v>
@@ -6920,7 +6917,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
         <v>196</v>
       </c>
@@ -6937,7 +6934,7 @@
         <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G60" t="s">
         <v>197</v>
@@ -6997,7 +6994,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -7014,7 +7011,7 @@
         <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G61" t="s">
         <v>199</v>
@@ -7074,7 +7071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
         <v>201</v>
       </c>
@@ -7091,7 +7088,7 @@
         <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G62" t="s">
         <v>202</v>
@@ -7151,7 +7148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
         <v>204</v>
       </c>
@@ -7168,7 +7165,7 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G63" t="s">
         <v>207</v>
@@ -7228,7 +7225,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
         <v>209</v>
       </c>
@@ -7245,7 +7242,7 @@
         <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G64" t="s">
         <v>210</v>
@@ -7305,7 +7302,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -7322,7 +7319,7 @@
         <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G65" t="s">
         <v>212</v>
@@ -7382,7 +7379,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -7399,7 +7396,7 @@
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G66" t="s">
         <v>215</v>
@@ -7459,7 +7456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>216</v>
       </c>
@@ -7476,7 +7473,7 @@
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G67" t="s">
         <v>217</v>
@@ -7536,7 +7533,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>201</v>
       </c>
@@ -7553,7 +7550,7 @@
         <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G68" t="s">
         <v>218</v>
@@ -7613,7 +7610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>220</v>
       </c>
@@ -7630,7 +7627,7 @@
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G69" t="s">
         <v>221</v>
@@ -7690,7 +7687,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>222</v>
       </c>
@@ -7707,7 +7704,7 @@
         <v>24</v>
       </c>
       <c r="F70" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G70" t="s">
         <v>223</v>
@@ -7767,7 +7764,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G71" t="s">
         <v>226</v>
@@ -7844,7 +7841,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>228</v>
       </c>
@@ -7861,7 +7858,7 @@
         <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G72" t="s">
         <v>229</v>
@@ -7921,7 +7918,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -7938,7 +7935,7 @@
         <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G73" t="s">
         <v>232</v>
@@ -7998,7 +7995,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>234</v>
       </c>
@@ -8015,7 +8012,7 @@
         <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G74" t="s">
         <v>235</v>
@@ -8075,7 +8072,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -8092,7 +8089,7 @@
         <v>26</v>
       </c>
       <c r="F75" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G75" t="s">
         <v>238</v>
@@ -8152,7 +8149,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -8169,7 +8166,7 @@
         <v>26</v>
       </c>
       <c r="F76" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G76" t="s">
         <v>242</v>
@@ -8229,7 +8226,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -8246,7 +8243,7 @@
         <v>26</v>
       </c>
       <c r="F77" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G77" t="s">
         <v>245</v>
@@ -8306,7 +8303,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -8323,7 +8320,7 @@
         <v>26</v>
       </c>
       <c r="F78" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G78" t="s">
         <v>247</v>
@@ -8383,7 +8380,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
         <v>214</v>
       </c>
@@ -8400,7 +8397,7 @@
         <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G79" t="s">
         <v>249</v>
@@ -8460,7 +8457,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
         <v>216</v>
       </c>
@@ -8477,7 +8474,7 @@
         <v>26</v>
       </c>
       <c r="F80" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G80" t="s">
         <v>250</v>
@@ -8537,7 +8534,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
         <v>201</v>
       </c>
@@ -8554,7 +8551,7 @@
         <v>26</v>
       </c>
       <c r="F81" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G81" t="s">
         <v>251</v>
@@ -8614,7 +8611,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
         <v>220</v>
       </c>
@@ -8631,7 +8628,7 @@
         <v>26</v>
       </c>
       <c r="F82" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G82" t="s">
         <v>253</v>
@@ -8691,7 +8688,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
         <v>254</v>
       </c>
@@ -8708,7 +8705,7 @@
         <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G83" t="s">
         <v>255</v>
@@ -8768,7 +8765,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
         <v>257</v>
       </c>
@@ -8785,7 +8782,7 @@
         <v>24</v>
       </c>
       <c r="F84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G84" t="s">
         <v>258</v>
@@ -8845,7 +8842,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
         <v>259</v>
       </c>
@@ -8862,7 +8859,7 @@
         <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G85" t="s">
         <v>261</v>
@@ -8922,7 +8919,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -8939,7 +8936,7 @@
         <v>26</v>
       </c>
       <c r="F86" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G86" t="s">
         <v>264</v>
@@ -8999,7 +8996,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -9016,7 +9013,7 @@
         <v>26</v>
       </c>
       <c r="F87" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G87" t="s">
         <v>266</v>
@@ -9076,7 +9073,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
         <v>267</v>
       </c>
@@ -9093,7 +9090,7 @@
         <v>26</v>
       </c>
       <c r="F88" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G88" t="s">
         <v>268</v>
@@ -9153,7 +9150,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
         <v>270</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>26</v>
       </c>
       <c r="F89" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G89" t="s">
         <v>271</v>
@@ -9230,7 +9227,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
         <v>272</v>
       </c>
@@ -9247,7 +9244,7 @@
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G90" t="s">
         <v>273</v>
@@ -9307,7 +9304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -9324,7 +9321,7 @@
         <v>26</v>
       </c>
       <c r="F91" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G91" t="s">
         <v>276</v>
@@ -9384,7 +9381,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
         <v>277</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>26</v>
       </c>
       <c r="F92" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G92" t="s">
         <v>278</v>
@@ -9461,7 +9458,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
         <v>280</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>26</v>
       </c>
       <c r="F93" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G93" t="s">
         <v>281</v>
@@ -9538,7 +9535,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
         <v>282</v>
       </c>
@@ -9555,7 +9552,7 @@
         <v>26</v>
       </c>
       <c r="F94" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G94" t="s">
         <v>283</v>
@@ -9615,7 +9612,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
         <v>284</v>
       </c>
@@ -9632,7 +9629,7 @@
         <v>26</v>
       </c>
       <c r="F95" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G95" t="s">
         <v>287</v>
@@ -9692,7 +9689,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
         <v>289</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G96" t="s">
         <v>290</v>
@@ -9769,7 +9766,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
         <v>291</v>
       </c>
@@ -9786,7 +9783,7 @@
         <v>26</v>
       </c>
       <c r="F97" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G97" t="s">
         <v>292</v>
@@ -9846,7 +9843,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
         <v>294</v>
       </c>
@@ -9863,7 +9860,7 @@
         <v>26</v>
       </c>
       <c r="F98" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G98" t="s">
         <v>295</v>
@@ -9923,7 +9920,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
         <v>297</v>
       </c>
@@ -9940,7 +9937,7 @@
         <v>26</v>
       </c>
       <c r="F99" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G99" t="s">
         <v>298</v>
@@ -10000,7 +9997,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
         <v>299</v>
       </c>
@@ -10017,7 +10014,7 @@
         <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G100" t="s">
         <v>300</v>
@@ -10077,7 +10074,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -10094,7 +10091,7 @@
         <v>26</v>
       </c>
       <c r="F101" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G101" t="s">
         <v>303</v>
@@ -10154,7 +10151,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
         <v>304</v>
       </c>
@@ -10171,7 +10168,7 @@
         <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G102" t="s">
         <v>305</v>
@@ -10231,7 +10228,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
         <v>307</v>
       </c>
@@ -10248,7 +10245,7 @@
         <v>26</v>
       </c>
       <c r="F103" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G103" t="s">
         <v>308</v>
@@ -10308,7 +10305,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
         <v>310</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>26</v>
       </c>
       <c r="F104" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G104" t="s">
         <v>311</v>
@@ -10385,7 +10382,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
         <v>312</v>
       </c>
@@ -10402,7 +10399,7 @@
         <v>26</v>
       </c>
       <c r="F105" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G105" t="s">
         <v>313</v>
@@ -10462,7 +10459,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
         <v>315</v>
       </c>
@@ -10479,7 +10476,7 @@
         <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G106" t="s">
         <v>317</v>
@@ -10539,7 +10536,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -10556,7 +10553,7 @@
         <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G107" t="s">
         <v>320</v>
@@ -10616,7 +10613,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
         <v>254</v>
       </c>
@@ -10633,7 +10630,7 @@
         <v>24</v>
       </c>
       <c r="F108" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G108" t="s">
         <v>321</v>
@@ -10693,7 +10690,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -10710,7 +10707,7 @@
         <v>24</v>
       </c>
       <c r="F109" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G109" t="s">
         <v>323</v>
@@ -10770,7 +10767,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G110" t="s">
         <v>325</v>
@@ -10847,7 +10844,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -10864,7 +10861,7 @@
         <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G111" t="s">
         <v>328</v>
@@ -10924,7 +10921,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
         <v>329</v>
       </c>
@@ -10941,7 +10938,7 @@
         <v>26</v>
       </c>
       <c r="F112" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G112" t="s">
         <v>330</v>
@@ -11001,7 +10998,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -11018,7 +11015,7 @@
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G113" t="s">
         <v>333</v>
@@ -11078,7 +11075,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
         <v>334</v>
       </c>
@@ -11095,7 +11092,7 @@
         <v>26</v>
       </c>
       <c r="F114" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G114" t="s">
         <v>335</v>
@@ -11155,7 +11152,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
         <v>337</v>
       </c>
@@ -11172,7 +11169,7 @@
         <v>26</v>
       </c>
       <c r="F115" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G115" t="s">
         <v>338</v>
@@ -11232,7 +11229,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
         <v>339</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>26</v>
       </c>
       <c r="F116" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G116" t="s">
         <v>340</v>
@@ -11309,7 +11306,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
         <v>342</v>
       </c>
@@ -11326,7 +11323,7 @@
         <v>26</v>
       </c>
       <c r="F117" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G117" t="s">
         <v>343</v>
@@ -11386,7 +11383,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
         <v>344</v>
       </c>
@@ -11403,7 +11400,7 @@
         <v>26</v>
       </c>
       <c r="F118" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G118" t="s">
         <v>346</v>
@@ -11463,7 +11460,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
         <v>348</v>
       </c>
@@ -11480,7 +11477,7 @@
         <v>26</v>
       </c>
       <c r="F119" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G119" t="s">
         <v>349</v>
@@ -11540,7 +11537,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
         <v>351</v>
       </c>
@@ -11557,7 +11554,7 @@
         <v>26</v>
       </c>
       <c r="F120" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G120" t="s">
         <v>352</v>
@@ -11617,7 +11614,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
         <v>354</v>
       </c>
@@ -11634,7 +11631,7 @@
         <v>26</v>
       </c>
       <c r="F121" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G121" t="s">
         <v>355</v>
@@ -11694,7 +11691,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:25">
       <c r="A122" t="s">
         <v>357</v>
       </c>
@@ -11711,7 +11708,7 @@
         <v>26</v>
       </c>
       <c r="F122" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G122" t="s">
         <v>358</v>
@@ -11771,7 +11768,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
         <v>359</v>
       </c>
@@ -11788,7 +11785,7 @@
         <v>26</v>
       </c>
       <c r="F123" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G123" t="s">
         <v>360</v>
@@ -11848,7 +11845,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
         <v>362</v>
       </c>
@@ -11865,7 +11862,7 @@
         <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G124" t="s">
         <v>363</v>
@@ -11925,7 +11922,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
         <v>365</v>
       </c>
@@ -11942,7 +11939,7 @@
         <v>26</v>
       </c>
       <c r="F125" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G125" t="s">
         <v>366</v>
@@ -12002,7 +11999,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
         <v>367</v>
       </c>
@@ -12019,7 +12016,7 @@
         <v>26</v>
       </c>
       <c r="F126" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G126" t="s">
         <v>368</v>
@@ -12079,7 +12076,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
         <v>370</v>
       </c>
@@ -12096,7 +12093,7 @@
         <v>26</v>
       </c>
       <c r="F127" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G127" t="s">
         <v>371</v>
@@ -12156,7 +12153,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
         <v>373</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>26</v>
       </c>
       <c r="F128" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G128" t="s">
         <v>374</v>
@@ -12233,7 +12230,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:25">
       <c r="A129" t="s">
         <v>375</v>
       </c>
@@ -12250,7 +12247,7 @@
         <v>26</v>
       </c>
       <c r="F129" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G129" t="s">
         <v>376</v>
@@ -12310,7 +12307,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
         <v>378</v>
       </c>
@@ -12327,7 +12324,7 @@
         <v>26</v>
       </c>
       <c r="F130" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G130" t="s">
         <v>379</v>
@@ -12387,7 +12384,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
         <v>381</v>
       </c>
@@ -12404,7 +12401,7 @@
         <v>26</v>
       </c>
       <c r="F131" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G131" t="s">
         <v>382</v>
@@ -12464,7 +12461,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
         <v>383</v>
       </c>
@@ -12481,7 +12478,7 @@
         <v>26</v>
       </c>
       <c r="F132" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G132" t="s">
         <v>384</v>
@@ -12541,7 +12538,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
         <v>386</v>
       </c>
@@ -12558,7 +12555,7 @@
         <v>26</v>
       </c>
       <c r="F133" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G133" t="s">
         <v>387</v>
@@ -12618,7 +12615,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
         <v>389</v>
       </c>
@@ -12635,7 +12632,7 @@
         <v>26</v>
       </c>
       <c r="F134" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G134" t="s">
         <v>390</v>
@@ -12695,7 +12692,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:25">
       <c r="A135" t="s">
         <v>392</v>
       </c>
@@ -12712,7 +12709,7 @@
         <v>26</v>
       </c>
       <c r="F135" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G135" t="s">
         <v>394</v>
@@ -12772,7 +12769,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
         <v>396</v>
       </c>
@@ -12789,7 +12786,7 @@
         <v>26</v>
       </c>
       <c r="F136" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G136" t="s">
         <v>397</v>
@@ -12849,7 +12846,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
         <v>399</v>
       </c>
@@ -12866,7 +12863,7 @@
         <v>26</v>
       </c>
       <c r="F137" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G137" t="s">
         <v>400</v>
@@ -12926,7 +12923,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
         <v>401</v>
       </c>
@@ -12943,7 +12940,7 @@
         <v>26</v>
       </c>
       <c r="F138" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G138" t="s">
         <v>402</v>
@@ -13003,7 +13000,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
         <v>404</v>
       </c>
@@ -13020,7 +13017,7 @@
         <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G139" t="s">
         <v>405</v>
@@ -13080,7 +13077,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
         <v>407</v>
       </c>
@@ -13097,7 +13094,7 @@
         <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G140" t="s">
         <v>408</v>
@@ -13157,7 +13154,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:25">
       <c r="A141" t="s">
         <v>409</v>
       </c>
@@ -13174,7 +13171,7 @@
         <v>26</v>
       </c>
       <c r="F141" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G141" t="s">
         <v>410</v>
@@ -13234,7 +13231,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
         <v>412</v>
       </c>
@@ -13251,7 +13248,7 @@
         <v>26</v>
       </c>
       <c r="F142" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G142" t="s">
         <v>413</v>
@@ -13311,7 +13308,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
         <v>415</v>
       </c>
@@ -13328,7 +13325,7 @@
         <v>26</v>
       </c>
       <c r="F143" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G143" t="s">
         <v>416</v>
@@ -13388,7 +13385,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
         <v>418</v>
       </c>
@@ -13405,7 +13402,7 @@
         <v>26</v>
       </c>
       <c r="F144" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G144" t="s">
         <v>419</v>
@@ -13465,7 +13462,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
         <v>421</v>
       </c>
@@ -13482,7 +13479,7 @@
         <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G145" t="s">
         <v>422</v>
@@ -13542,7 +13539,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
         <v>424</v>
       </c>
@@ -13559,7 +13556,7 @@
         <v>26</v>
       </c>
       <c r="F146" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G146" t="s">
         <v>425</v>
@@ -13619,7 +13616,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:25">
       <c r="A147" t="s">
         <v>426</v>
       </c>
@@ -13636,7 +13633,7 @@
         <v>24</v>
       </c>
       <c r="F147" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G147" t="s">
         <v>428</v>
@@ -13696,7 +13693,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
         <v>430</v>
       </c>
@@ -13713,7 +13710,7 @@
         <v>24</v>
       </c>
       <c r="F148" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G148" t="s">
         <v>431</v>
@@ -13773,7 +13770,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
         <v>432</v>
       </c>
@@ -13790,7 +13787,7 @@
         <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G149" t="s">
         <v>433</v>
@@ -13850,7 +13847,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
         <v>435</v>
       </c>
@@ -13867,7 +13864,7 @@
         <v>24</v>
       </c>
       <c r="F150" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G150" t="s">
         <v>436</v>
@@ -13927,7 +13924,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
         <v>437</v>
       </c>
@@ -13944,7 +13941,7 @@
         <v>26</v>
       </c>
       <c r="F151" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G151" t="s">
         <v>438</v>
@@ -14004,7 +14001,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
         <v>440</v>
       </c>
@@ -14021,7 +14018,7 @@
         <v>26</v>
       </c>
       <c r="F152" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G152" t="s">
         <v>441</v>
@@ -14081,7 +14078,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:25">
       <c r="A153" t="s">
         <v>442</v>
       </c>
@@ -14098,7 +14095,7 @@
         <v>26</v>
       </c>
       <c r="F153" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G153" t="s">
         <v>443</v>
@@ -14158,7 +14155,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:25">
       <c r="A154" t="s">
         <v>445</v>
       </c>
@@ -14175,7 +14172,7 @@
         <v>24</v>
       </c>
       <c r="F154" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G154" t="s">
         <v>446</v>
@@ -14235,7 +14232,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:25">
       <c r="A155" t="s">
         <v>447</v>
       </c>
@@ -14252,7 +14249,7 @@
         <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G155" t="s">
         <v>448</v>
@@ -14312,7 +14309,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:25">
       <c r="A156" t="s">
         <v>450</v>
       </c>
@@ -14329,7 +14326,7 @@
         <v>26</v>
       </c>
       <c r="F156" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G156" t="s">
         <v>451</v>
@@ -14389,7 +14386,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:25">
       <c r="A157" t="s">
         <v>453</v>
       </c>
@@ -14406,7 +14403,7 @@
         <v>26</v>
       </c>
       <c r="F157" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G157" t="s">
         <v>454</v>
@@ -14466,7 +14463,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:25">
       <c r="A158" t="s">
         <v>165</v>
       </c>
@@ -14483,7 +14480,7 @@
         <v>26</v>
       </c>
       <c r="F158" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G158" t="s">
         <v>456</v>
@@ -14543,7 +14540,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:25">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -14560,7 +14557,7 @@
         <v>26</v>
       </c>
       <c r="F159" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G159" t="s">
         <v>459</v>
@@ -14620,7 +14617,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:25">
       <c r="A160" t="s">
         <v>170</v>
       </c>
@@ -14637,7 +14634,7 @@
         <v>26</v>
       </c>
       <c r="F160" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G160" t="s">
         <v>460</v>
@@ -14697,7 +14694,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -14714,7 +14711,7 @@
         <v>26</v>
       </c>
       <c r="F161" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G161" t="s">
         <v>462</v>
@@ -14774,7 +14771,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:25">
       <c r="A162" t="s">
         <v>463</v>
       </c>
@@ -14791,7 +14788,7 @@
         <v>26</v>
       </c>
       <c r="F162" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G162" t="s">
         <v>464</v>
@@ -14851,7 +14848,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:25">
       <c r="A163" t="s">
         <v>466</v>
       </c>
@@ -14868,7 +14865,7 @@
         <v>26</v>
       </c>
       <c r="F163" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G163" t="s">
         <v>467</v>
@@ -14928,7 +14925,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:25">
       <c r="A164" t="s">
         <v>468</v>
       </c>
@@ -14945,7 +14942,7 @@
         <v>26</v>
       </c>
       <c r="F164" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G164" t="s">
         <v>469</v>
@@ -15005,7 +15002,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:25">
       <c r="A165" t="s">
         <v>471</v>
       </c>
@@ -15022,7 +15019,7 @@
         <v>26</v>
       </c>
       <c r="F165" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G165" t="s">
         <v>472</v>
@@ -15082,7 +15079,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:25">
       <c r="A166" t="s">
         <v>216</v>
       </c>
@@ -15099,7 +15096,7 @@
         <v>26</v>
       </c>
       <c r="F166" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G166" t="s">
         <v>473</v>
@@ -15159,7 +15156,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:25">
       <c r="A167" t="s">
         <v>211</v>
       </c>
@@ -15176,7 +15173,7 @@
         <v>26</v>
       </c>
       <c r="F167" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G167" t="s">
         <v>475</v>
@@ -15236,7 +15233,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:25">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -15253,7 +15250,7 @@
         <v>26</v>
       </c>
       <c r="F168" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G168" t="s">
         <v>476</v>
@@ -15313,7 +15310,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:25">
       <c r="A169" t="s">
         <v>477</v>
       </c>
@@ -15330,7 +15327,7 @@
         <v>26</v>
       </c>
       <c r="F169" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G169" t="s">
         <v>478</v>
@@ -15390,7 +15387,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:25">
       <c r="A170" t="s">
         <v>480</v>
       </c>
@@ -15407,7 +15404,7 @@
         <v>26</v>
       </c>
       <c r="F170" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G170" t="s">
         <v>481</v>
@@ -15467,7 +15464,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:25">
       <c r="A171" t="s">
         <v>483</v>
       </c>
@@ -15484,7 +15481,7 @@
         <v>26</v>
       </c>
       <c r="F171" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G171" t="s">
         <v>485</v>
@@ -15544,7 +15541,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:25">
       <c r="A172" t="s">
         <v>487</v>
       </c>
@@ -15561,7 +15558,7 @@
         <v>26</v>
       </c>
       <c r="F172" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G172" t="s">
         <v>488</v>
@@ -15621,7 +15618,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:25">
       <c r="A173" t="s">
         <v>284</v>
       </c>
@@ -15638,7 +15635,7 @@
         <v>26</v>
       </c>
       <c r="F173" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G173" t="s">
         <v>489</v>
@@ -15698,7 +15695,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:25">
       <c r="A174" t="s">
         <v>289</v>
       </c>
@@ -15715,7 +15712,7 @@
         <v>26</v>
       </c>
       <c r="F174" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G174" t="s">
         <v>491</v>
@@ -15775,7 +15772,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:25">
       <c r="A175" t="s">
         <v>291</v>
       </c>
@@ -15792,7 +15789,7 @@
         <v>26</v>
       </c>
       <c r="F175" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G175" t="s">
         <v>492</v>
@@ -15852,7 +15849,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:25">
       <c r="A176" t="s">
         <v>294</v>
       </c>
@@ -15869,7 +15866,7 @@
         <v>26</v>
       </c>
       <c r="F176" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G176" t="s">
         <v>494</v>
@@ -15929,7 +15926,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:25">
       <c r="A177" t="s">
         <v>297</v>
       </c>
@@ -15946,7 +15943,7 @@
         <v>26</v>
       </c>
       <c r="F177" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G177" t="s">
         <v>496</v>
@@ -16006,7 +16003,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:25">
       <c r="A178" t="s">
         <v>497</v>
       </c>
@@ -16023,7 +16020,7 @@
         <v>26</v>
       </c>
       <c r="F178" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G178" t="s">
         <v>498</v>
@@ -16083,7 +16080,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:25">
       <c r="A179" t="s">
         <v>302</v>
       </c>
@@ -16100,7 +16097,7 @@
         <v>26</v>
       </c>
       <c r="F179" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G179" t="s">
         <v>500</v>
@@ -16160,7 +16157,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:25">
       <c r="A180" t="s">
         <v>501</v>
       </c>
@@ -16177,7 +16174,7 @@
         <v>26</v>
       </c>
       <c r="F180" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G180" t="s">
         <v>503</v>
@@ -16237,7 +16234,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:25">
       <c r="A181" t="s">
         <v>505</v>
       </c>
@@ -16254,7 +16251,7 @@
         <v>26</v>
       </c>
       <c r="F181" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G181" t="s">
         <v>506</v>
@@ -16314,7 +16311,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:25">
       <c r="A182" t="s">
         <v>508</v>
       </c>
@@ -16331,7 +16328,7 @@
         <v>24</v>
       </c>
       <c r="F182" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G182" t="s">
         <v>509</v>
@@ -16391,7 +16388,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:25">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -16408,7 +16405,7 @@
         <v>24</v>
       </c>
       <c r="F183" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G183" t="s">
         <v>512</v>
@@ -16468,7 +16465,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:25">
       <c r="A184" t="s">
         <v>514</v>
       </c>
@@ -16485,7 +16482,7 @@
         <v>26</v>
       </c>
       <c r="F184" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G184" t="s">
         <v>515</v>
@@ -16545,7 +16542,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:25">
       <c r="A185" t="s">
         <v>517</v>
       </c>
@@ -16562,7 +16559,7 @@
         <v>24</v>
       </c>
       <c r="F185" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G185" t="s">
         <v>518</v>
@@ -16622,7 +16619,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:25">
       <c r="A186" t="s">
         <v>520</v>
       </c>
@@ -16639,7 +16636,7 @@
         <v>26</v>
       </c>
       <c r="F186" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G186" t="s">
         <v>521</v>
@@ -16699,7 +16696,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:25">
       <c r="A187" t="s">
         <v>523</v>
       </c>
@@ -16716,7 +16713,7 @@
         <v>26</v>
       </c>
       <c r="F187" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G187" t="s">
         <v>524</v>
@@ -16776,7 +16773,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:25">
       <c r="A188" t="s">
         <v>525</v>
       </c>
@@ -16793,7 +16790,7 @@
         <v>26</v>
       </c>
       <c r="F188" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G188" t="s">
         <v>526</v>
@@ -16853,7 +16850,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:25">
       <c r="A189" t="s">
         <v>528</v>
       </c>
@@ -16870,7 +16867,7 @@
         <v>26</v>
       </c>
       <c r="F189" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G189" t="s">
         <v>529</v>
@@ -16930,7 +16927,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:25">
       <c r="A190" t="s">
         <v>204</v>
       </c>
@@ -16947,7 +16944,7 @@
         <v>26</v>
       </c>
       <c r="F190" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G190" t="s">
         <v>531</v>
@@ -17007,7 +17004,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:25">
       <c r="A191" t="s">
         <v>209</v>
       </c>
@@ -17024,7 +17021,7 @@
         <v>26</v>
       </c>
       <c r="F191" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G191" t="s">
         <v>533</v>
@@ -17084,7 +17081,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:25">
       <c r="A192" t="s">
         <v>534</v>
       </c>
@@ -17101,7 +17098,7 @@
         <v>26</v>
       </c>
       <c r="F192" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G192" t="s">
         <v>536</v>
@@ -17161,7 +17158,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:25">
       <c r="A193" t="s">
         <v>538</v>
       </c>
@@ -17178,7 +17175,7 @@
         <v>26</v>
       </c>
       <c r="F193" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G193" t="s">
         <v>539</v>
@@ -17238,7 +17235,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:25">
       <c r="A194" t="s">
         <v>541</v>
       </c>
@@ -17255,7 +17252,7 @@
         <v>26</v>
       </c>
       <c r="F194" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G194" t="s">
         <v>542</v>
@@ -17315,7 +17312,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:25">
       <c r="A195" t="s">
         <v>543</v>
       </c>
@@ -17332,7 +17329,7 @@
         <v>26</v>
       </c>
       <c r="F195" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G195" t="s">
         <v>544</v>
@@ -17392,7 +17389,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:25">
       <c r="A196" t="s">
         <v>546</v>
       </c>
@@ -17409,7 +17406,7 @@
         <v>26</v>
       </c>
       <c r="F196" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G196" t="s">
         <v>547</v>
@@ -17469,7 +17466,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:25">
       <c r="A197" t="s">
         <v>548</v>
       </c>
@@ -17486,7 +17483,7 @@
         <v>26</v>
       </c>
       <c r="F197" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G197" t="s">
         <v>549</v>
@@ -17546,7 +17543,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:25">
       <c r="A198" t="s">
         <v>551</v>
       </c>
@@ -17563,7 +17560,7 @@
         <v>24</v>
       </c>
       <c r="F198" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G198" t="s">
         <v>552</v>
@@ -17623,7 +17620,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:25">
       <c r="A199" t="s">
         <v>554</v>
       </c>
@@ -17640,7 +17637,7 @@
         <v>24</v>
       </c>
       <c r="F199" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G199" t="s">
         <v>555</v>
@@ -17700,7 +17697,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:25">
       <c r="A200" t="s">
         <v>556</v>
       </c>
@@ -17717,7 +17714,7 @@
         <v>26</v>
       </c>
       <c r="F200" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G200" t="s">
         <v>557</v>
@@ -17777,7 +17774,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:25">
       <c r="A201" t="s">
         <v>559</v>
       </c>
@@ -17794,7 +17791,7 @@
         <v>26</v>
       </c>
       <c r="F201" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G201" t="s">
         <v>560</v>
@@ -17854,7 +17851,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:25">
       <c r="A202" t="s">
         <v>561</v>
       </c>
@@ -17871,7 +17868,7 @@
         <v>26</v>
       </c>
       <c r="F202" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G202" t="s">
         <v>562</v>
@@ -17931,7 +17928,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:25">
       <c r="A203" t="s">
         <v>564</v>
       </c>
@@ -17948,7 +17945,7 @@
         <v>26</v>
       </c>
       <c r="F203" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G203" t="s">
         <v>565</v>
@@ -18008,7 +18005,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:25">
       <c r="A204" t="s">
         <v>567</v>
       </c>
@@ -18025,7 +18022,7 @@
         <v>26</v>
       </c>
       <c r="F204" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G204" t="s">
         <v>568</v>
@@ -18085,7 +18082,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:25">
       <c r="A205" t="s">
         <v>570</v>
       </c>
@@ -18102,7 +18099,7 @@
         <v>26</v>
       </c>
       <c r="F205" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G205" t="s">
         <v>571</v>
@@ -18162,7 +18159,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:25">
       <c r="A206" t="s">
         <v>572</v>
       </c>
@@ -18179,7 +18176,7 @@
         <v>26</v>
       </c>
       <c r="F206" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G206" t="s">
         <v>573</v>
@@ -18239,7 +18236,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:25">
       <c r="A207" t="s">
         <v>575</v>
       </c>
@@ -18256,7 +18253,7 @@
         <v>26</v>
       </c>
       <c r="F207" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G207" t="s">
         <v>576</v>
@@ -18316,7 +18313,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:25">
       <c r="A208" t="s">
         <v>578</v>
       </c>
@@ -18333,7 +18330,7 @@
         <v>26</v>
       </c>
       <c r="F208" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G208" t="s">
         <v>579</v>
@@ -18393,7 +18390,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:25">
       <c r="A209" t="s">
         <v>581</v>
       </c>
@@ -18410,7 +18407,7 @@
         <v>26</v>
       </c>
       <c r="F209" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G209" t="s">
         <v>582</v>
@@ -18470,7 +18467,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:25">
       <c r="A210" t="s">
         <v>584</v>
       </c>
@@ -18478,7 +18475,7 @@
         <v>393</v>
       </c>
       <c r="C210" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D210" t="s">
         <v>286</v>
@@ -18487,75 +18484,75 @@
         <v>26</v>
       </c>
       <c r="F210" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G210" t="s">
+        <v>585</v>
+      </c>
+      <c r="H210" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" t="s">
+        <v>24</v>
+      </c>
+      <c r="J210" t="s">
+        <v>24</v>
+      </c>
+      <c r="K210" t="s">
+        <v>24</v>
+      </c>
+      <c r="L210" t="s">
+        <v>24</v>
+      </c>
+      <c r="M210" t="s">
+        <v>24</v>
+      </c>
+      <c r="N210" t="s">
+        <v>24</v>
+      </c>
+      <c r="O210" t="s">
+        <v>24</v>
+      </c>
+      <c r="P210" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>24</v>
+      </c>
+      <c r="R210" t="s">
+        <v>24</v>
+      </c>
+      <c r="S210" t="s">
+        <v>24</v>
+      </c>
+      <c r="T210" t="s">
+        <v>24</v>
+      </c>
+      <c r="U210" t="s">
+        <v>24</v>
+      </c>
+      <c r="V210" t="s">
+        <v>24</v>
+      </c>
+      <c r="W210" t="s">
+        <v>24</v>
+      </c>
+      <c r="X210" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y210" t="s">
         <v>586</v>
       </c>
-      <c r="H210" t="s">
-        <v>26</v>
-      </c>
-      <c r="I210" t="s">
-        <v>24</v>
-      </c>
-      <c r="J210" t="s">
-        <v>24</v>
-      </c>
-      <c r="K210" t="s">
-        <v>24</v>
-      </c>
-      <c r="L210" t="s">
-        <v>24</v>
-      </c>
-      <c r="M210" t="s">
-        <v>24</v>
-      </c>
-      <c r="N210" t="s">
-        <v>24</v>
-      </c>
-      <c r="O210" t="s">
-        <v>24</v>
-      </c>
-      <c r="P210" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>24</v>
-      </c>
-      <c r="R210" t="s">
-        <v>24</v>
-      </c>
-      <c r="S210" t="s">
-        <v>24</v>
-      </c>
-      <c r="T210" t="s">
-        <v>24</v>
-      </c>
-      <c r="U210" t="s">
-        <v>24</v>
-      </c>
-      <c r="V210" t="s">
-        <v>24</v>
-      </c>
-      <c r="W210" t="s">
-        <v>24</v>
-      </c>
-      <c r="X210" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y210" t="s">
+    </row>
+    <row r="211" spans="1:25">
+      <c r="A211" t="s">
         <v>587</v>
-      </c>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>588</v>
       </c>
       <c r="B211" t="s">
         <v>393</v>
       </c>
       <c r="C211" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D211" t="s">
         <v>286</v>
@@ -18564,75 +18561,75 @@
         <v>26</v>
       </c>
       <c r="F211" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G211" t="s">
+        <v>588</v>
+      </c>
+      <c r="H211" t="s">
+        <v>26</v>
+      </c>
+      <c r="I211" t="s">
+        <v>24</v>
+      </c>
+      <c r="J211" t="s">
+        <v>24</v>
+      </c>
+      <c r="K211" t="s">
+        <v>24</v>
+      </c>
+      <c r="L211" t="s">
+        <v>24</v>
+      </c>
+      <c r="M211" t="s">
+        <v>24</v>
+      </c>
+      <c r="N211" t="s">
+        <v>24</v>
+      </c>
+      <c r="O211" t="s">
+        <v>24</v>
+      </c>
+      <c r="P211" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>24</v>
+      </c>
+      <c r="R211" t="s">
+        <v>24</v>
+      </c>
+      <c r="S211" t="s">
+        <v>24</v>
+      </c>
+      <c r="T211" t="s">
+        <v>24</v>
+      </c>
+      <c r="U211" t="s">
+        <v>24</v>
+      </c>
+      <c r="V211" t="s">
+        <v>24</v>
+      </c>
+      <c r="W211" t="s">
+        <v>24</v>
+      </c>
+      <c r="X211" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y211" t="s">
         <v>589</v>
       </c>
-      <c r="H211" t="s">
-        <v>26</v>
-      </c>
-      <c r="I211" t="s">
-        <v>24</v>
-      </c>
-      <c r="J211" t="s">
-        <v>24</v>
-      </c>
-      <c r="K211" t="s">
-        <v>24</v>
-      </c>
-      <c r="L211" t="s">
-        <v>24</v>
-      </c>
-      <c r="M211" t="s">
-        <v>24</v>
-      </c>
-      <c r="N211" t="s">
-        <v>24</v>
-      </c>
-      <c r="O211" t="s">
-        <v>24</v>
-      </c>
-      <c r="P211" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>24</v>
-      </c>
-      <c r="R211" t="s">
-        <v>24</v>
-      </c>
-      <c r="S211" t="s">
-        <v>24</v>
-      </c>
-      <c r="T211" t="s">
-        <v>24</v>
-      </c>
-      <c r="U211" t="s">
-        <v>24</v>
-      </c>
-      <c r="V211" t="s">
-        <v>24</v>
-      </c>
-      <c r="W211" t="s">
-        <v>24</v>
-      </c>
-      <c r="X211" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y211" t="s">
+    </row>
+    <row r="212" spans="1:25">
+      <c r="A212" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>591</v>
       </c>
       <c r="B212" t="s">
         <v>393</v>
       </c>
       <c r="C212" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D212" t="s">
         <v>286</v>
@@ -18641,75 +18638,75 @@
         <v>26</v>
       </c>
       <c r="F212" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G212" t="s">
+        <v>591</v>
+      </c>
+      <c r="H212" t="s">
+        <v>26</v>
+      </c>
+      <c r="I212" t="s">
+        <v>24</v>
+      </c>
+      <c r="J212" t="s">
+        <v>24</v>
+      </c>
+      <c r="K212" t="s">
+        <v>24</v>
+      </c>
+      <c r="L212" t="s">
+        <v>24</v>
+      </c>
+      <c r="M212" t="s">
+        <v>24</v>
+      </c>
+      <c r="N212" t="s">
+        <v>24</v>
+      </c>
+      <c r="O212" t="s">
+        <v>24</v>
+      </c>
+      <c r="P212" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>24</v>
+      </c>
+      <c r="R212" t="s">
+        <v>24</v>
+      </c>
+      <c r="S212" t="s">
+        <v>24</v>
+      </c>
+      <c r="T212" t="s">
+        <v>24</v>
+      </c>
+      <c r="U212" t="s">
+        <v>24</v>
+      </c>
+      <c r="V212" t="s">
+        <v>24</v>
+      </c>
+      <c r="W212" t="s">
+        <v>24</v>
+      </c>
+      <c r="X212" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="213" spans="1:25">
+      <c r="A213" t="s">
         <v>592</v>
-      </c>
-      <c r="H212" t="s">
-        <v>26</v>
-      </c>
-      <c r="I212" t="s">
-        <v>24</v>
-      </c>
-      <c r="J212" t="s">
-        <v>24</v>
-      </c>
-      <c r="K212" t="s">
-        <v>24</v>
-      </c>
-      <c r="L212" t="s">
-        <v>24</v>
-      </c>
-      <c r="M212" t="s">
-        <v>24</v>
-      </c>
-      <c r="N212" t="s">
-        <v>24</v>
-      </c>
-      <c r="O212" t="s">
-        <v>24</v>
-      </c>
-      <c r="P212" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>24</v>
-      </c>
-      <c r="R212" t="s">
-        <v>24</v>
-      </c>
-      <c r="S212" t="s">
-        <v>24</v>
-      </c>
-      <c r="T212" t="s">
-        <v>24</v>
-      </c>
-      <c r="U212" t="s">
-        <v>24</v>
-      </c>
-      <c r="V212" t="s">
-        <v>24</v>
-      </c>
-      <c r="W212" t="s">
-        <v>24</v>
-      </c>
-      <c r="X212" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y212" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>593</v>
       </c>
       <c r="B213" t="s">
         <v>393</v>
       </c>
       <c r="C213" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D213" t="s">
         <v>286</v>
@@ -18718,75 +18715,75 @@
         <v>26</v>
       </c>
       <c r="F213" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G213" t="s">
+        <v>593</v>
+      </c>
+      <c r="H213" t="s">
+        <v>24</v>
+      </c>
+      <c r="I213" t="s">
+        <v>26</v>
+      </c>
+      <c r="J213" t="s">
+        <v>26</v>
+      </c>
+      <c r="K213" t="s">
+        <v>26</v>
+      </c>
+      <c r="L213" t="s">
+        <v>26</v>
+      </c>
+      <c r="M213" t="s">
+        <v>26</v>
+      </c>
+      <c r="N213" t="s">
+        <v>26</v>
+      </c>
+      <c r="O213" t="s">
+        <v>26</v>
+      </c>
+      <c r="P213" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>26</v>
+      </c>
+      <c r="R213" t="s">
+        <v>26</v>
+      </c>
+      <c r="S213" t="s">
+        <v>26</v>
+      </c>
+      <c r="T213" t="s">
+        <v>26</v>
+      </c>
+      <c r="U213" t="s">
+        <v>26</v>
+      </c>
+      <c r="V213" t="s">
+        <v>26</v>
+      </c>
+      <c r="W213" t="s">
+        <v>26</v>
+      </c>
+      <c r="X213" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y213" t="s">
         <v>594</v>
       </c>
-      <c r="H213" t="s">
-        <v>24</v>
-      </c>
-      <c r="I213" t="s">
-        <v>26</v>
-      </c>
-      <c r="J213" t="s">
-        <v>26</v>
-      </c>
-      <c r="K213" t="s">
-        <v>26</v>
-      </c>
-      <c r="L213" t="s">
-        <v>26</v>
-      </c>
-      <c r="M213" t="s">
-        <v>26</v>
-      </c>
-      <c r="N213" t="s">
-        <v>26</v>
-      </c>
-      <c r="O213" t="s">
-        <v>26</v>
-      </c>
-      <c r="P213" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>26</v>
-      </c>
-      <c r="R213" t="s">
-        <v>26</v>
-      </c>
-      <c r="S213" t="s">
-        <v>26</v>
-      </c>
-      <c r="T213" t="s">
-        <v>26</v>
-      </c>
-      <c r="U213" t="s">
-        <v>26</v>
-      </c>
-      <c r="V213" t="s">
-        <v>26</v>
-      </c>
-      <c r="W213" t="s">
-        <v>26</v>
-      </c>
-      <c r="X213" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y213" t="s">
+    </row>
+    <row r="214" spans="1:25">
+      <c r="A214" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>596</v>
       </c>
       <c r="B214" t="s">
         <v>393</v>
       </c>
       <c r="C214" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D214" t="s">
         <v>286</v>
@@ -18795,75 +18792,75 @@
         <v>26</v>
       </c>
       <c r="F214" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G214" t="s">
+        <v>596</v>
+      </c>
+      <c r="H214" t="s">
+        <v>26</v>
+      </c>
+      <c r="I214" t="s">
+        <v>24</v>
+      </c>
+      <c r="J214" t="s">
+        <v>24</v>
+      </c>
+      <c r="K214" t="s">
+        <v>24</v>
+      </c>
+      <c r="L214" t="s">
+        <v>24</v>
+      </c>
+      <c r="M214" t="s">
+        <v>24</v>
+      </c>
+      <c r="N214" t="s">
+        <v>24</v>
+      </c>
+      <c r="O214" t="s">
+        <v>24</v>
+      </c>
+      <c r="P214" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>24</v>
+      </c>
+      <c r="R214" t="s">
+        <v>24</v>
+      </c>
+      <c r="S214" t="s">
+        <v>24</v>
+      </c>
+      <c r="T214" t="s">
+        <v>24</v>
+      </c>
+      <c r="U214" t="s">
+        <v>24</v>
+      </c>
+      <c r="V214" t="s">
+        <v>24</v>
+      </c>
+      <c r="W214" t="s">
+        <v>24</v>
+      </c>
+      <c r="X214" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="215" spans="1:25">
+      <c r="A215" t="s">
         <v>597</v>
-      </c>
-      <c r="H214" t="s">
-        <v>26</v>
-      </c>
-      <c r="I214" t="s">
-        <v>24</v>
-      </c>
-      <c r="J214" t="s">
-        <v>24</v>
-      </c>
-      <c r="K214" t="s">
-        <v>24</v>
-      </c>
-      <c r="L214" t="s">
-        <v>24</v>
-      </c>
-      <c r="M214" t="s">
-        <v>24</v>
-      </c>
-      <c r="N214" t="s">
-        <v>24</v>
-      </c>
-      <c r="O214" t="s">
-        <v>24</v>
-      </c>
-      <c r="P214" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>24</v>
-      </c>
-      <c r="R214" t="s">
-        <v>24</v>
-      </c>
-      <c r="S214" t="s">
-        <v>24</v>
-      </c>
-      <c r="T214" t="s">
-        <v>24</v>
-      </c>
-      <c r="U214" t="s">
-        <v>24</v>
-      </c>
-      <c r="V214" t="s">
-        <v>24</v>
-      </c>
-      <c r="W214" t="s">
-        <v>24</v>
-      </c>
-      <c r="X214" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y214" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>598</v>
       </c>
       <c r="B215" t="s">
         <v>393</v>
       </c>
       <c r="C215" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D215" t="s">
         <v>286</v>
@@ -18872,69 +18869,69 @@
         <v>26</v>
       </c>
       <c r="F215" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G215" t="s">
+        <v>598</v>
+      </c>
+      <c r="H215" t="s">
+        <v>26</v>
+      </c>
+      <c r="I215" t="s">
+        <v>26</v>
+      </c>
+      <c r="J215" t="s">
+        <v>26</v>
+      </c>
+      <c r="K215" t="s">
+        <v>24</v>
+      </c>
+      <c r="L215" t="s">
+        <v>24</v>
+      </c>
+      <c r="M215" t="s">
+        <v>26</v>
+      </c>
+      <c r="N215" t="s">
+        <v>24</v>
+      </c>
+      <c r="O215" t="s">
+        <v>26</v>
+      </c>
+      <c r="P215" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>26</v>
+      </c>
+      <c r="R215" t="s">
+        <v>26</v>
+      </c>
+      <c r="S215" t="s">
+        <v>24</v>
+      </c>
+      <c r="T215" t="s">
+        <v>26</v>
+      </c>
+      <c r="U215" t="s">
+        <v>26</v>
+      </c>
+      <c r="V215" t="s">
+        <v>26</v>
+      </c>
+      <c r="W215" t="s">
+        <v>26</v>
+      </c>
+      <c r="X215" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y215" t="s">
         <v>599</v>
       </c>
-      <c r="H215" t="s">
-        <v>26</v>
-      </c>
-      <c r="I215" t="s">
-        <v>26</v>
-      </c>
-      <c r="J215" t="s">
-        <v>26</v>
-      </c>
-      <c r="K215" t="s">
-        <v>24</v>
-      </c>
-      <c r="L215" t="s">
-        <v>24</v>
-      </c>
-      <c r="M215" t="s">
-        <v>26</v>
-      </c>
-      <c r="N215" t="s">
-        <v>24</v>
-      </c>
-      <c r="O215" t="s">
-        <v>26</v>
-      </c>
-      <c r="P215" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>26</v>
-      </c>
-      <c r="R215" t="s">
-        <v>26</v>
-      </c>
-      <c r="S215" t="s">
-        <v>24</v>
-      </c>
-      <c r="T215" t="s">
-        <v>26</v>
-      </c>
-      <c r="U215" t="s">
-        <v>26</v>
-      </c>
-      <c r="V215" t="s">
-        <v>26</v>
-      </c>
-      <c r="W215" t="s">
-        <v>26</v>
-      </c>
-      <c r="X215" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y215" t="s">
+    </row>
+    <row r="216" spans="1:25">
+      <c r="A216" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>601</v>
       </c>
       <c r="B216" t="s">
         <v>393</v>
@@ -18949,69 +18946,69 @@
         <v>26</v>
       </c>
       <c r="F216" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G216" t="s">
+        <v>601</v>
+      </c>
+      <c r="H216" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" t="s">
+        <v>26</v>
+      </c>
+      <c r="J216" t="s">
+        <v>26</v>
+      </c>
+      <c r="K216" t="s">
+        <v>24</v>
+      </c>
+      <c r="L216" t="s">
+        <v>24</v>
+      </c>
+      <c r="M216" t="s">
+        <v>26</v>
+      </c>
+      <c r="N216" t="s">
+        <v>24</v>
+      </c>
+      <c r="O216" t="s">
+        <v>26</v>
+      </c>
+      <c r="P216" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>26</v>
+      </c>
+      <c r="R216" t="s">
+        <v>26</v>
+      </c>
+      <c r="S216" t="s">
+        <v>24</v>
+      </c>
+      <c r="T216" t="s">
+        <v>26</v>
+      </c>
+      <c r="U216" t="s">
+        <v>26</v>
+      </c>
+      <c r="V216" t="s">
+        <v>26</v>
+      </c>
+      <c r="W216" t="s">
+        <v>26</v>
+      </c>
+      <c r="X216" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="217" spans="1:25">
+      <c r="A217" t="s">
         <v>602</v>
-      </c>
-      <c r="H216" t="s">
-        <v>26</v>
-      </c>
-      <c r="I216" t="s">
-        <v>26</v>
-      </c>
-      <c r="J216" t="s">
-        <v>26</v>
-      </c>
-      <c r="K216" t="s">
-        <v>24</v>
-      </c>
-      <c r="L216" t="s">
-        <v>24</v>
-      </c>
-      <c r="M216" t="s">
-        <v>26</v>
-      </c>
-      <c r="N216" t="s">
-        <v>24</v>
-      </c>
-      <c r="O216" t="s">
-        <v>26</v>
-      </c>
-      <c r="P216" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>26</v>
-      </c>
-      <c r="R216" t="s">
-        <v>26</v>
-      </c>
-      <c r="S216" t="s">
-        <v>24</v>
-      </c>
-      <c r="T216" t="s">
-        <v>26</v>
-      </c>
-      <c r="U216" t="s">
-        <v>26</v>
-      </c>
-      <c r="V216" t="s">
-        <v>26</v>
-      </c>
-      <c r="W216" t="s">
-        <v>26</v>
-      </c>
-      <c r="X216" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y216" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>603</v>
       </c>
       <c r="B217" t="s">
         <v>393</v>
@@ -19026,75 +19023,75 @@
         <v>26</v>
       </c>
       <c r="F217" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G217" t="s">
+        <v>603</v>
+      </c>
+      <c r="H217" t="s">
+        <v>26</v>
+      </c>
+      <c r="I217" t="s">
+        <v>26</v>
+      </c>
+      <c r="J217" t="s">
+        <v>26</v>
+      </c>
+      <c r="K217" t="s">
+        <v>24</v>
+      </c>
+      <c r="L217" t="s">
+        <v>24</v>
+      </c>
+      <c r="M217" t="s">
+        <v>26</v>
+      </c>
+      <c r="N217" t="s">
+        <v>24</v>
+      </c>
+      <c r="O217" t="s">
+        <v>26</v>
+      </c>
+      <c r="P217" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>26</v>
+      </c>
+      <c r="R217" t="s">
+        <v>26</v>
+      </c>
+      <c r="S217" t="s">
+        <v>24</v>
+      </c>
+      <c r="T217" t="s">
+        <v>26</v>
+      </c>
+      <c r="U217" t="s">
+        <v>26</v>
+      </c>
+      <c r="V217" t="s">
+        <v>26</v>
+      </c>
+      <c r="W217" t="s">
+        <v>26</v>
+      </c>
+      <c r="X217" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y217" t="s">
         <v>604</v>
       </c>
-      <c r="H217" t="s">
-        <v>26</v>
-      </c>
-      <c r="I217" t="s">
-        <v>26</v>
-      </c>
-      <c r="J217" t="s">
-        <v>26</v>
-      </c>
-      <c r="K217" t="s">
-        <v>24</v>
-      </c>
-      <c r="L217" t="s">
-        <v>24</v>
-      </c>
-      <c r="M217" t="s">
-        <v>26</v>
-      </c>
-      <c r="N217" t="s">
-        <v>24</v>
-      </c>
-      <c r="O217" t="s">
-        <v>26</v>
-      </c>
-      <c r="P217" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>26</v>
-      </c>
-      <c r="R217" t="s">
-        <v>26</v>
-      </c>
-      <c r="S217" t="s">
-        <v>24</v>
-      </c>
-      <c r="T217" t="s">
-        <v>26</v>
-      </c>
-      <c r="U217" t="s">
-        <v>26</v>
-      </c>
-      <c r="V217" t="s">
-        <v>26</v>
-      </c>
-      <c r="W217" t="s">
-        <v>26</v>
-      </c>
-      <c r="X217" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y217" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:25">
       <c r="A218" t="s">
         <v>520</v>
       </c>
       <c r="B218" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C218" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D218" t="s">
         <v>206</v>
@@ -19103,75 +19100,75 @@
         <v>26</v>
       </c>
       <c r="F218" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G218" t="s">
+        <v>606</v>
+      </c>
+      <c r="H218" t="s">
+        <v>24</v>
+      </c>
+      <c r="I218" t="s">
+        <v>24</v>
+      </c>
+      <c r="J218" t="s">
+        <v>24</v>
+      </c>
+      <c r="K218" t="s">
+        <v>24</v>
+      </c>
+      <c r="L218" t="s">
+        <v>24</v>
+      </c>
+      <c r="M218" t="s">
+        <v>24</v>
+      </c>
+      <c r="N218" t="s">
+        <v>24</v>
+      </c>
+      <c r="O218" t="s">
+        <v>24</v>
+      </c>
+      <c r="P218" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>24</v>
+      </c>
+      <c r="R218" t="s">
+        <v>24</v>
+      </c>
+      <c r="S218" t="s">
+        <v>24</v>
+      </c>
+      <c r="T218" t="s">
+        <v>24</v>
+      </c>
+      <c r="U218" t="s">
+        <v>24</v>
+      </c>
+      <c r="V218" t="s">
+        <v>24</v>
+      </c>
+      <c r="W218" t="s">
+        <v>24</v>
+      </c>
+      <c r="X218" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y218" t="s">
         <v>607</v>
       </c>
-      <c r="H218" t="s">
-        <v>24</v>
-      </c>
-      <c r="I218" t="s">
-        <v>24</v>
-      </c>
-      <c r="J218" t="s">
-        <v>24</v>
-      </c>
-      <c r="K218" t="s">
-        <v>24</v>
-      </c>
-      <c r="L218" t="s">
-        <v>24</v>
-      </c>
-      <c r="M218" t="s">
-        <v>24</v>
-      </c>
-      <c r="N218" t="s">
-        <v>24</v>
-      </c>
-      <c r="O218" t="s">
-        <v>24</v>
-      </c>
-      <c r="P218" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>24</v>
-      </c>
-      <c r="R218" t="s">
-        <v>24</v>
-      </c>
-      <c r="S218" t="s">
-        <v>24</v>
-      </c>
-      <c r="T218" t="s">
-        <v>24</v>
-      </c>
-      <c r="U218" t="s">
-        <v>24</v>
-      </c>
-      <c r="V218" t="s">
-        <v>24</v>
-      </c>
-      <c r="W218" t="s">
-        <v>24</v>
-      </c>
-      <c r="X218" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y218" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:25">
       <c r="A219" t="s">
         <v>523</v>
       </c>
       <c r="B219" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C219" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D219" t="s">
         <v>206</v>
@@ -19180,10 +19177,10 @@
         <v>26</v>
       </c>
       <c r="F219" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G219" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H219" t="s">
         <v>24</v>
@@ -19237,18 +19234,18 @@
         <v>26</v>
       </c>
       <c r="Y219" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="220" spans="1:25">
       <c r="A220" t="s">
         <v>528</v>
       </c>
       <c r="B220" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C220" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D220" t="s">
         <v>206</v>
@@ -19257,72 +19254,72 @@
         <v>26</v>
       </c>
       <c r="F220" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G220" t="s">
+        <v>609</v>
+      </c>
+      <c r="H220" t="s">
+        <v>24</v>
+      </c>
+      <c r="I220" t="s">
+        <v>26</v>
+      </c>
+      <c r="J220" t="s">
+        <v>26</v>
+      </c>
+      <c r="K220" t="s">
+        <v>26</v>
+      </c>
+      <c r="L220" t="s">
+        <v>26</v>
+      </c>
+      <c r="M220" t="s">
+        <v>26</v>
+      </c>
+      <c r="N220" t="s">
+        <v>26</v>
+      </c>
+      <c r="O220" t="s">
+        <v>26</v>
+      </c>
+      <c r="P220" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>26</v>
+      </c>
+      <c r="R220" t="s">
+        <v>26</v>
+      </c>
+      <c r="S220" t="s">
+        <v>26</v>
+      </c>
+      <c r="T220" t="s">
+        <v>26</v>
+      </c>
+      <c r="U220" t="s">
+        <v>26</v>
+      </c>
+      <c r="V220" t="s">
+        <v>26</v>
+      </c>
+      <c r="W220" t="s">
+        <v>26</v>
+      </c>
+      <c r="X220" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y220" t="s">
         <v>610</v>
       </c>
-      <c r="H220" t="s">
-        <v>24</v>
-      </c>
-      <c r="I220" t="s">
-        <v>26</v>
-      </c>
-      <c r="J220" t="s">
-        <v>26</v>
-      </c>
-      <c r="K220" t="s">
-        <v>26</v>
-      </c>
-      <c r="L220" t="s">
-        <v>26</v>
-      </c>
-      <c r="M220" t="s">
-        <v>26</v>
-      </c>
-      <c r="N220" t="s">
-        <v>26</v>
-      </c>
-      <c r="O220" t="s">
-        <v>26</v>
-      </c>
-      <c r="P220" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>26</v>
-      </c>
-      <c r="R220" t="s">
-        <v>26</v>
-      </c>
-      <c r="S220" t="s">
-        <v>26</v>
-      </c>
-      <c r="T220" t="s">
-        <v>26</v>
-      </c>
-      <c r="U220" t="s">
-        <v>26</v>
-      </c>
-      <c r="V220" t="s">
-        <v>26</v>
-      </c>
-      <c r="W220" t="s">
-        <v>26</v>
-      </c>
-      <c r="X220" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y220" t="s">
+    </row>
+    <row r="221" spans="1:25">
+      <c r="A221" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>612</v>
-      </c>
       <c r="B221" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
@@ -19334,75 +19331,75 @@
         <v>26</v>
       </c>
       <c r="F221" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G221" t="s">
+        <v>612</v>
+      </c>
+      <c r="H221" t="s">
+        <v>26</v>
+      </c>
+      <c r="I221" t="s">
+        <v>24</v>
+      </c>
+      <c r="J221" t="s">
+        <v>24</v>
+      </c>
+      <c r="K221" t="s">
+        <v>24</v>
+      </c>
+      <c r="L221" t="s">
+        <v>24</v>
+      </c>
+      <c r="M221" t="s">
+        <v>24</v>
+      </c>
+      <c r="N221" t="s">
+        <v>24</v>
+      </c>
+      <c r="O221" t="s">
+        <v>24</v>
+      </c>
+      <c r="P221" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>24</v>
+      </c>
+      <c r="R221" t="s">
+        <v>24</v>
+      </c>
+      <c r="S221" t="s">
+        <v>24</v>
+      </c>
+      <c r="T221" t="s">
+        <v>24</v>
+      </c>
+      <c r="U221" t="s">
+        <v>24</v>
+      </c>
+      <c r="V221" t="s">
+        <v>24</v>
+      </c>
+      <c r="W221" t="s">
+        <v>24</v>
+      </c>
+      <c r="X221" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y221" t="s">
         <v>613</v>
       </c>
-      <c r="H221" t="s">
-        <v>26</v>
-      </c>
-      <c r="I221" t="s">
-        <v>24</v>
-      </c>
-      <c r="J221" t="s">
-        <v>24</v>
-      </c>
-      <c r="K221" t="s">
-        <v>24</v>
-      </c>
-      <c r="L221" t="s">
-        <v>24</v>
-      </c>
-      <c r="M221" t="s">
-        <v>24</v>
-      </c>
-      <c r="N221" t="s">
-        <v>24</v>
-      </c>
-      <c r="O221" t="s">
-        <v>24</v>
-      </c>
-      <c r="P221" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>24</v>
-      </c>
-      <c r="R221" t="s">
-        <v>24</v>
-      </c>
-      <c r="S221" t="s">
-        <v>24</v>
-      </c>
-      <c r="T221" t="s">
-        <v>24</v>
-      </c>
-      <c r="U221" t="s">
-        <v>24</v>
-      </c>
-      <c r="V221" t="s">
-        <v>24</v>
-      </c>
-      <c r="W221" t="s">
-        <v>24</v>
-      </c>
-      <c r="X221" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y221" t="s">
+    </row>
+    <row r="222" spans="1:25">
+      <c r="A222" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>615</v>
-      </c>
       <c r="B222" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C222" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D222" t="s">
         <v>206</v>
@@ -19411,75 +19408,75 @@
         <v>26</v>
       </c>
       <c r="F222" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G222" t="s">
+        <v>615</v>
+      </c>
+      <c r="H222" t="s">
+        <v>24</v>
+      </c>
+      <c r="I222" t="s">
+        <v>26</v>
+      </c>
+      <c r="J222" t="s">
+        <v>26</v>
+      </c>
+      <c r="K222" t="s">
+        <v>26</v>
+      </c>
+      <c r="L222" t="s">
+        <v>26</v>
+      </c>
+      <c r="M222" t="s">
+        <v>26</v>
+      </c>
+      <c r="N222" t="s">
+        <v>26</v>
+      </c>
+      <c r="O222" t="s">
+        <v>26</v>
+      </c>
+      <c r="P222" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>26</v>
+      </c>
+      <c r="R222" t="s">
+        <v>26</v>
+      </c>
+      <c r="S222" t="s">
+        <v>26</v>
+      </c>
+      <c r="T222" t="s">
+        <v>26</v>
+      </c>
+      <c r="U222" t="s">
+        <v>26</v>
+      </c>
+      <c r="V222" t="s">
+        <v>26</v>
+      </c>
+      <c r="W222" t="s">
+        <v>26</v>
+      </c>
+      <c r="X222" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y222" t="s">
         <v>616</v>
       </c>
-      <c r="H222" t="s">
-        <v>24</v>
-      </c>
-      <c r="I222" t="s">
-        <v>26</v>
-      </c>
-      <c r="J222" t="s">
-        <v>26</v>
-      </c>
-      <c r="K222" t="s">
-        <v>26</v>
-      </c>
-      <c r="L222" t="s">
-        <v>26</v>
-      </c>
-      <c r="M222" t="s">
-        <v>26</v>
-      </c>
-      <c r="N222" t="s">
-        <v>26</v>
-      </c>
-      <c r="O222" t="s">
-        <v>26</v>
-      </c>
-      <c r="P222" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>26</v>
-      </c>
-      <c r="R222" t="s">
-        <v>26</v>
-      </c>
-      <c r="S222" t="s">
-        <v>26</v>
-      </c>
-      <c r="T222" t="s">
-        <v>26</v>
-      </c>
-      <c r="U222" t="s">
-        <v>26</v>
-      </c>
-      <c r="V222" t="s">
-        <v>26</v>
-      </c>
-      <c r="W222" t="s">
-        <v>26</v>
-      </c>
-      <c r="X222" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y222" t="s">
+    </row>
+    <row r="223" spans="1:25">
+      <c r="A223" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>618</v>
-      </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C223" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D223" t="s">
         <v>206</v>
@@ -19488,75 +19485,75 @@
         <v>26</v>
       </c>
       <c r="F223" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G223" t="s">
+        <v>618</v>
+      </c>
+      <c r="H223" t="s">
+        <v>24</v>
+      </c>
+      <c r="I223" t="s">
+        <v>26</v>
+      </c>
+      <c r="J223" t="s">
+        <v>26</v>
+      </c>
+      <c r="K223" t="s">
+        <v>26</v>
+      </c>
+      <c r="L223" t="s">
+        <v>26</v>
+      </c>
+      <c r="M223" t="s">
+        <v>26</v>
+      </c>
+      <c r="N223" t="s">
+        <v>26</v>
+      </c>
+      <c r="O223" t="s">
+        <v>26</v>
+      </c>
+      <c r="P223" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>26</v>
+      </c>
+      <c r="R223" t="s">
+        <v>26</v>
+      </c>
+      <c r="S223" t="s">
+        <v>26</v>
+      </c>
+      <c r="T223" t="s">
+        <v>26</v>
+      </c>
+      <c r="U223" t="s">
+        <v>26</v>
+      </c>
+      <c r="V223" t="s">
+        <v>26</v>
+      </c>
+      <c r="W223" t="s">
+        <v>26</v>
+      </c>
+      <c r="X223" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
+      <c r="A224" t="s">
         <v>619</v>
       </c>
-      <c r="H223" t="s">
-        <v>24</v>
-      </c>
-      <c r="I223" t="s">
-        <v>26</v>
-      </c>
-      <c r="J223" t="s">
-        <v>26</v>
-      </c>
-      <c r="K223" t="s">
-        <v>26</v>
-      </c>
-      <c r="L223" t="s">
-        <v>26</v>
-      </c>
-      <c r="M223" t="s">
-        <v>26</v>
-      </c>
-      <c r="N223" t="s">
-        <v>26</v>
-      </c>
-      <c r="O223" t="s">
-        <v>26</v>
-      </c>
-      <c r="P223" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>26</v>
-      </c>
-      <c r="R223" t="s">
-        <v>26</v>
-      </c>
-      <c r="S223" t="s">
-        <v>26</v>
-      </c>
-      <c r="T223" t="s">
-        <v>26</v>
-      </c>
-      <c r="U223" t="s">
-        <v>26</v>
-      </c>
-      <c r="V223" t="s">
-        <v>26</v>
-      </c>
-      <c r="W223" t="s">
-        <v>26</v>
-      </c>
-      <c r="X223" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y223" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>620</v>
-      </c>
       <c r="B224" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C224" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D224" t="s">
         <v>286</v>
@@ -19565,75 +19562,75 @@
         <v>26</v>
       </c>
       <c r="F224" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G224" t="s">
+        <v>620</v>
+      </c>
+      <c r="H224" t="s">
+        <v>24</v>
+      </c>
+      <c r="I224" t="s">
+        <v>26</v>
+      </c>
+      <c r="J224" t="s">
+        <v>26</v>
+      </c>
+      <c r="K224" t="s">
+        <v>26</v>
+      </c>
+      <c r="L224" t="s">
+        <v>26</v>
+      </c>
+      <c r="M224" t="s">
+        <v>26</v>
+      </c>
+      <c r="N224" t="s">
+        <v>26</v>
+      </c>
+      <c r="O224" t="s">
+        <v>26</v>
+      </c>
+      <c r="P224" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>26</v>
+      </c>
+      <c r="R224" t="s">
+        <v>26</v>
+      </c>
+      <c r="S224" t="s">
+        <v>26</v>
+      </c>
+      <c r="T224" t="s">
+        <v>26</v>
+      </c>
+      <c r="U224" t="s">
+        <v>26</v>
+      </c>
+      <c r="V224" t="s">
+        <v>26</v>
+      </c>
+      <c r="W224" t="s">
+        <v>26</v>
+      </c>
+      <c r="X224" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y224" t="s">
         <v>621</v>
       </c>
-      <c r="H224" t="s">
-        <v>24</v>
-      </c>
-      <c r="I224" t="s">
-        <v>26</v>
-      </c>
-      <c r="J224" t="s">
-        <v>26</v>
-      </c>
-      <c r="K224" t="s">
-        <v>26</v>
-      </c>
-      <c r="L224" t="s">
-        <v>26</v>
-      </c>
-      <c r="M224" t="s">
-        <v>26</v>
-      </c>
-      <c r="N224" t="s">
-        <v>26</v>
-      </c>
-      <c r="O224" t="s">
-        <v>26</v>
-      </c>
-      <c r="P224" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>26</v>
-      </c>
-      <c r="R224" t="s">
-        <v>26</v>
-      </c>
-      <c r="S224" t="s">
-        <v>26</v>
-      </c>
-      <c r="T224" t="s">
-        <v>26</v>
-      </c>
-      <c r="U224" t="s">
-        <v>26</v>
-      </c>
-      <c r="V224" t="s">
-        <v>26</v>
-      </c>
-      <c r="W224" t="s">
-        <v>26</v>
-      </c>
-      <c r="X224" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y224" t="s">
+    </row>
+    <row r="225" spans="1:25">
+      <c r="A225" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>623</v>
-      </c>
       <c r="B225" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C225" t="s">
-        <v>585</v>
+        <v>231</v>
       </c>
       <c r="D225" t="s">
         <v>286</v>
@@ -19642,64 +19639,64 @@
         <v>26</v>
       </c>
       <c r="F225" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G225" t="s">
+        <v>623</v>
+      </c>
+      <c r="H225" t="s">
+        <v>24</v>
+      </c>
+      <c r="I225" t="s">
+        <v>26</v>
+      </c>
+      <c r="J225" t="s">
+        <v>26</v>
+      </c>
+      <c r="K225" t="s">
+        <v>26</v>
+      </c>
+      <c r="L225" t="s">
+        <v>26</v>
+      </c>
+      <c r="M225" t="s">
+        <v>26</v>
+      </c>
+      <c r="N225" t="s">
+        <v>26</v>
+      </c>
+      <c r="O225" t="s">
+        <v>26</v>
+      </c>
+      <c r="P225" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>26</v>
+      </c>
+      <c r="R225" t="s">
+        <v>26</v>
+      </c>
+      <c r="S225" t="s">
+        <v>26</v>
+      </c>
+      <c r="T225" t="s">
+        <v>26</v>
+      </c>
+      <c r="U225" t="s">
+        <v>26</v>
+      </c>
+      <c r="V225" t="s">
+        <v>26</v>
+      </c>
+      <c r="W225" t="s">
+        <v>26</v>
+      </c>
+      <c r="X225" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y225" t="s">
         <v>624</v>
-      </c>
-      <c r="H225" t="s">
-        <v>24</v>
-      </c>
-      <c r="I225" t="s">
-        <v>26</v>
-      </c>
-      <c r="J225" t="s">
-        <v>26</v>
-      </c>
-      <c r="K225" t="s">
-        <v>26</v>
-      </c>
-      <c r="L225" t="s">
-        <v>26</v>
-      </c>
-      <c r="M225" t="s">
-        <v>26</v>
-      </c>
-      <c r="N225" t="s">
-        <v>26</v>
-      </c>
-      <c r="O225" t="s">
-        <v>26</v>
-      </c>
-      <c r="P225" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>26</v>
-      </c>
-      <c r="R225" t="s">
-        <v>26</v>
-      </c>
-      <c r="S225" t="s">
-        <v>26</v>
-      </c>
-      <c r="T225" t="s">
-        <v>26</v>
-      </c>
-      <c r="U225" t="s">
-        <v>26</v>
-      </c>
-      <c r="V225" t="s">
-        <v>26</v>
-      </c>
-      <c r="W225" t="s">
-        <v>26</v>
-      </c>
-      <c r="X225" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>625</v>
       </c>
     </row>
   </sheetData>
